--- a/TestData/Job_Details.xlsx
+++ b/TestData/Job_Details.xlsx
@@ -44,7 +44,7 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>Carpen</t>
+    <t>Carqqqq</t>
   </si>
   <si>
     <t>Wood Works</t>
@@ -56,13 +56,13 @@
     <t>Partial</t>
   </si>
   <si>
-    <t>Carp</t>
+    <t>dzfd</t>
   </si>
   <si>
     <t>Cancel</t>
   </si>
   <si>
-    <t>Cart</t>
+    <t>Cartkfzgdddg</t>
   </si>
   <si>
     <t>Delete</t>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/TestData/Job_Details.xlsx
+++ b/TestData/Job_Details.xlsx
@@ -44,7 +44,7 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>Carqqqq</t>
+    <t>fsddvwrffh</t>
   </si>
   <si>
     <t>Wood Works</t>
@@ -56,13 +56,13 @@
     <t>Partial</t>
   </si>
   <si>
-    <t>dzfd</t>
+    <t>ewefwqhjww</t>
   </si>
   <si>
     <t>Cancel</t>
   </si>
   <si>
-    <t>Cartkfzgdddg</t>
+    <t>wfewffddqqfcs</t>
   </si>
   <si>
     <t>Delete</t>
@@ -1003,13 +1003,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="12.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="18.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="12.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="11.7777777777778" customWidth="1"/>
   </cols>
